--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -46,7 +46,7 @@
     <definedName name="TrendOffset">#REF!</definedName>
     <definedName name="TrendSprintCount">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>Sprint</t>
   </si>
@@ -296,10 +296,40 @@
     <t>HU09</t>
   </si>
   <si>
-    <t>HU10</t>
-  </si>
-  <si>
-    <t>HU11</t>
+    <t>Implementacion de un sistema informnatico de registro de compras y ventas para el negocio Tecniagro Los Tres Potrillos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementacion de ventas </t>
+  </si>
+  <si>
+    <t>Formas de pago</t>
+  </si>
+  <si>
+    <t>Poder realizar ventas y llevar el control</t>
+  </si>
+  <si>
+    <t>Lllevar un control de que tipo de pago se utilizara en el negocio</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>Se llevara un control de los proveedores que al que el negocio le compra sus productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendedor </t>
+  </si>
+  <si>
+    <t>se probara si no hayerrores en el sistema</t>
+  </si>
+  <si>
+    <t>Testin</t>
+  </si>
+  <si>
+    <t>Facturacion</t>
+  </si>
+  <si>
+    <t>Se entregaran facturas a los clientes cuando realicen una compra</t>
   </si>
 </sst>
 </file>
@@ -616,7 +646,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,8 +664,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,8 +1312,8 @@
   </sheetPr>
   <dimension ref="B1:S80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1354,9 @@
         <v>15</v>
       </c>
       <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="D2" s="47" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="47"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
@@ -1398,14 +1430,14 @@
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="45"/>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1470,7 +1502,9 @@
       <c r="B8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D8" s="39" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1533,9 @@
       <c r="B9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="39" t="s">
         <v>31</v>
       </c>
@@ -1528,7 +1564,9 @@
       <c r="B10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" s="39" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1595,9 @@
       <c r="B11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="39" t="s">
         <v>39</v>
       </c>
@@ -1584,20 +1624,32 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="8">
         <v>2</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -1609,14 +1661,28 @@
       <c r="B13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="H13" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1628,14 +1694,28 @@
       <c r="B14" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="H14" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -1647,14 +1727,28 @@
       <c r="B15" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="H15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="8">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1662,18 +1756,32 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="H16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -1682,10 +1790,8 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
       <c r="F17" s="8"/>
@@ -1701,9 +1807,7 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
-        <v>45</v>
-      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -2522,7 +2626,7 @@
       <formula>$O70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7 B7:C7 E13 B8:E12 B13:C13 F7:K59 B14:E59">
+  <conditionalFormatting sqref="E7 B7:C7 E13 B8:E8 B18:E59 F7:K59 D14:E17 D9:E12 B9:C17">
     <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>$J7="Terminado"</formula>
     </cfRule>
@@ -2581,7 +2685,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O81:O190 J6:J59 K60:K63 O64:O79">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F13 F17:F51">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>

--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>Sprint</t>
   </si>
@@ -257,21 +257,9 @@
     <t>Crear y configurar la estructura del proyecto</t>
   </si>
   <si>
-    <t>Reporte de inventario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creacion de la base de datos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Llevar un mejor control en el inventario para que se facilite la busqueda de los productos </t>
   </si>
   <si>
-    <t xml:space="preserve">Implementar gestion de usuarios </t>
-  </si>
-  <si>
-    <t>Solo el dueño del negocio tendra acceso al inventario</t>
-  </si>
-  <si>
     <t>HU05</t>
   </si>
   <si>
@@ -317,26 +305,77 @@
     <t>Se llevara un control de los proveedores que al que el negocio le compra sus productos</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedor </t>
-  </si>
-  <si>
-    <t>se probara si no hayerrores en el sistema</t>
-  </si>
-  <si>
-    <t>Testin</t>
-  </si>
-  <si>
     <t>Facturacion</t>
   </si>
   <si>
     <t>Se entregaran facturas a los clientes cuando realicen una compra</t>
+  </si>
+  <si>
+    <t>HU10</t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>HU12</t>
+  </si>
+  <si>
+    <t>HU13</t>
+  </si>
+  <si>
+    <t>HU14</t>
+  </si>
+  <si>
+    <t>HU15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asignacion de los roles del sistema </t>
+  </si>
+  <si>
+    <t>implemetacion y configuracion de la base de datos.</t>
+  </si>
+  <si>
+    <t>Implementar gestion de usuarios.</t>
+  </si>
+  <si>
+    <t>Presentar la creacion y configuracion correcta del sistema.</t>
+  </si>
+  <si>
+    <t>configurar y diseñar la gestion de los datos en el sistema</t>
+  </si>
+  <si>
+    <t>HU16</t>
+  </si>
+  <si>
+    <t>HU17</t>
+  </si>
+  <si>
+    <t>HU18</t>
+  </si>
+  <si>
+    <t>creacion del fronted del sistema</t>
+  </si>
+  <si>
+    <t>programar el diseño del sistema</t>
+  </si>
+  <si>
+    <t>Generar reporte de inventario</t>
+  </si>
+  <si>
+    <t>la creacion y la implementacion de inventario</t>
+  </si>
+  <si>
+    <t>Registrar los productos en el inventario</t>
+  </si>
+  <si>
+    <t>la creacion y la implementacion de proveedores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -393,11 +432,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -643,8 +677,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -664,36 +698,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <font>
         <b/>
@@ -745,6 +757,160 @@
         <extend val="0"/>
         <color indexed="54"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1310,25 +1476,25 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S80"/>
+  <dimension ref="B1:S83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="5" customWidth="1"/>
     <col min="12" max="13" width="15" style="5" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="5" customWidth="1"/>
     <col min="15" max="15" width="14.140625" style="5" bestFit="1" customWidth="1"/>
@@ -1355,7 +1521,7 @@
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="38"/>
@@ -1381,7 +1547,7 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="38"/>
@@ -1481,16 +1647,28 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -1500,22 +1678,22 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>51</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C8" s="39"/>
       <c r="D8" s="39" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="8">
         <v>1</v>
       </c>
@@ -1529,24 +1707,24 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>51</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C9" s="39"/>
       <c r="D9" s="39" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="39" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" s="8">
         <v>1</v>
       </c>
@@ -1560,24 +1738,24 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>51</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C10" s="39"/>
       <c r="D10" s="39" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
@@ -1593,26 +1771,24 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="F11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>11</v>
@@ -1624,28 +1800,24 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>50</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="48"/>
       <c r="F12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>11</v>
@@ -1661,28 +1833,20 @@
       <c r="B13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>52</v>
-      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="8">
-        <v>2</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="9"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1692,26 +1856,24 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="39" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>11</v>
@@ -1723,28 +1885,26 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>51</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I15" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>11</v>
@@ -1756,28 +1916,22 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I16" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>11</v>
@@ -1790,15 +1944,29 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="39"/>
+      <c r="B17" s="39" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3</v>
+      </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="H17" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="8">
+        <v>3</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1807,15 +1975,29 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="8">
+        <v>3</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -1823,16 +2005,30 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="8"/>
+    <row r="19" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="H19" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="8">
+        <v>3</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1841,13 +2037,17 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="39"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
@@ -1857,14 +2057,22 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
+    <row r="21" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
@@ -1875,13 +2083,17 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
+      <c r="B22" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
@@ -1892,13 +2104,17 @@
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
+      <c r="B23" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
@@ -1909,13 +2125,17 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
+      <c r="B24" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
@@ -1926,13 +2146,13 @@
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
@@ -1943,7 +2163,7 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
@@ -2368,7 +2588,6 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="40"/>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -2385,14 +2604,15 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="4"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -2400,14 +2620,15 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="4"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -2415,14 +2636,15 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="4"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -2445,9 +2667,9 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -2490,15 +2712,15 @@
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="6"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
@@ -2508,11 +2730,11 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
+      <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -2523,11 +2745,11 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
+      <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -2538,11 +2760,11 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
+      <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -2558,30 +2780,63 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="L63" s="4"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
     </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="P69" s="7"/>
     </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2594,98 +2849,175 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P69:P70">
-    <cfRule type="expression" dxfId="33" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="28" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="29" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="30" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="48" priority="31" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="32" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="33" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80">
-    <cfRule type="expression" dxfId="27" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="76" stopIfTrue="1">
       <formula>$O70="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="77" stopIfTrue="1">
       <formula>$O70="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="78" stopIfTrue="1">
       <formula>$O70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7 B7:C7 E13 B8:E8 B18:E59 F7:K59 D14:E17 D9:E12 B9:C17">
-    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="E16 D17:E20 B7:K7 F25:K62 C22:E62 D14:E15 F11:G12 C8:G8 C10:G10 C9 F9:G9 I8:K12 F14:G24 I14:K24 C11:C21">
+    <cfRule type="expression" dxfId="42" priority="34" stopIfTrue="1">
       <formula>$J7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="35" stopIfTrue="1">
       <formula>$J7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="36" stopIfTrue="1">
       <formula>$J7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="21" priority="79" stopIfTrue="1">
-      <formula>$J11="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="80" stopIfTrue="1">
-      <formula>$J11="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="81" stopIfTrue="1">
-      <formula>$J11="Removed"</formula>
+    <cfRule type="expression" dxfId="39" priority="82" stopIfTrue="1">
+      <formula>$J14="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="83" stopIfTrue="1">
+      <formula>$J14="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="84" stopIfTrue="1">
+      <formula>$J14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="18" priority="82" stopIfTrue="1">
-      <formula>$J9="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="83" stopIfTrue="1">
-      <formula>$J9="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="84" stopIfTrue="1">
-      <formula>$J9="Removed"</formula>
+    <cfRule type="expression" dxfId="36" priority="85" stopIfTrue="1">
+      <formula>$J11="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="86" stopIfTrue="1">
+      <formula>$J11="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="87" stopIfTrue="1">
+      <formula>$J11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:P125">
-    <cfRule type="expression" dxfId="15" priority="88" stopIfTrue="1">
+  <conditionalFormatting sqref="M64:P125">
+    <cfRule type="expression" dxfId="33" priority="91" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="92" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:L63">
-    <cfRule type="expression" dxfId="12" priority="115" stopIfTrue="1">
-      <formula>$K60="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="116" stopIfTrue="1">
-      <formula>$K60="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="117" stopIfTrue="1">
-      <formula>$K60="Eliminado"</formula>
+  <conditionalFormatting sqref="C63:K66">
+    <cfRule type="expression" dxfId="30" priority="118" stopIfTrue="1">
+      <formula>$K63="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="119" stopIfTrue="1">
+      <formula>$K63="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="120" stopIfTrue="1">
+      <formula>$K63="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:B124 L63:L124">
+    <cfRule type="expression" dxfId="27" priority="127" stopIfTrue="1">
+      <formula>$O64="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="128" stopIfTrue="1">
+      <formula>$O64="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="129" stopIfTrue="1">
+      <formula>$O64="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:G13 I13:K13">
+    <cfRule type="expression" dxfId="24" priority="130" stopIfTrue="1">
+      <formula>$J14="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="131" stopIfTrue="1">
+      <formula>$J14="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="132" stopIfTrue="1">
+      <formula>$J14="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:L62">
+    <cfRule type="expression" dxfId="21" priority="154" stopIfTrue="1">
+      <formula>$K63="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="155" stopIfTrue="1">
+      <formula>$K63="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="156" stopIfTrue="1">
+      <formula>$K63="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="expression" dxfId="18" priority="160" stopIfTrue="1">
+      <formula>$J11="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="161" stopIfTrue="1">
+      <formula>$J11="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="162" stopIfTrue="1">
+      <formula>$J11="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:K128">
+    <cfRule type="expression" dxfId="15" priority="172" stopIfTrue="1">
+      <formula>$O64="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="173" stopIfTrue="1">
+      <formula>$O64="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="174" stopIfTrue="1">
+      <formula>$O64="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B58">
+    <cfRule type="expression" dxfId="12" priority="175" stopIfTrue="1">
+      <formula>$J14="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="176" stopIfTrue="1">
+      <formula>$J14="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="177" stopIfTrue="1">
+      <formula>$J14="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9 D9:E9 H8:H24">
+    <cfRule type="expression" dxfId="9" priority="181" stopIfTrue="1">
+      <formula>$J11="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="182" stopIfTrue="1">
+      <formula>$J11="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="183" stopIfTrue="1">
+      <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O81:O190 J6:J59 K60:K63 O64:O79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O81:O190 K63:K66 O64:O79 J6:J62">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F13 F17:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F54 F7:F16">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2701,8 +3033,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2752,16 +3084,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="34">
-        <v>43332</v>
+        <v>44348</v>
       </c>
       <c r="D3" s="20">
         <v>30</v>
       </c>
-      <c r="E3" s="21">
-        <v>43362</v>
+      <c r="E3" s="34">
+        <v>44378</v>
       </c>
       <c r="F3" s="17">
-        <f>IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B3,'Backlog del Producto'!L$7:L$130))</f>
+        <f ca="1">IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B3,'Backlog del Producto'!L$7:L$129))</f>
         <v>0</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -2774,19 +3106,17 @@
       <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="19">
-        <f>IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3,"")</f>
-        <v>43362</v>
+      <c r="C4" s="34">
+        <v>44378</v>
       </c>
       <c r="D4" s="20">
-        <v>15</v>
-      </c>
-      <c r="E4" s="21">
-        <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;""),C4+D4-1,"")</f>
-        <v>43376</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="34">
+        <v>44402</v>
       </c>
       <c r="F4" s="17">
-        <f>IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B4,'Backlog del Producto'!L$7:L$130))</f>
+        <f ca="1">IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B4,'Backlog del Producto'!L$7:L$129))</f>
         <v>0</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -2801,17 +3131,17 @@
       </c>
       <c r="C5" s="19">
         <f>IF(AND(C4&lt;&gt;"",D4&lt;&gt;"",D5&lt;&gt;""),C4+D4,"")</f>
-        <v>43377</v>
+        <v>44403</v>
       </c>
       <c r="D5" s="20">
         <v>30</v>
       </c>
       <c r="E5" s="21">
         <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;""),C5+D5-1,"")</f>
-        <v>43406</v>
+        <v>44432</v>
       </c>
       <c r="F5" s="17">
-        <f>IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B5,'Backlog del Producto'!L$7:L$130))</f>
+        <f ca="1">IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B5,'Backlog del Producto'!L$7:L$129))</f>
         <v>0</v>
       </c>
       <c r="G5" s="18" t="s">
@@ -2821,52 +3151,28 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="17">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19">
-        <f>IF(AND(C5&lt;&gt;"",D5&lt;&gt;"",D6&lt;&gt;""),C5+D5,"")</f>
-        <v>43407</v>
-      </c>
-      <c r="D6" s="20">
-        <v>30</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="str">
         <f>IF(AND(C6&lt;&gt;"",D6&lt;&gt;""),C6+D6-1,"")</f>
-        <v>43436</v>
-      </c>
-      <c r="F6" s="17">
-        <f>IF(B6="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B6,'Backlog del Producto'!L$7:L$130))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="20"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="17">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19">
-        <f>IF(AND(C6&lt;&gt;"",D6&lt;&gt;"",D7&lt;&gt;""),C6+D6,"")</f>
-        <v>43437</v>
-      </c>
-      <c r="D7" s="20">
-        <v>30</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="str">
         <f>IF(AND(C7&lt;&gt;"",D7&lt;&gt;""),C7+D7-1,"")</f>
-        <v>43466</v>
-      </c>
-      <c r="F7" s="17">
-        <f>IF(B7="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B7,'Backlog del Producto'!L$7:L$130))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="20"/>
       <c r="I7" s="15"/>
     </row>
@@ -2895,7 +3201,7 @@
         <v/>
       </c>
       <c r="F9" s="17" t="str">
-        <f>IF(B9="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B9,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B9="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B9,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G9" s="18" t="str">
@@ -2920,7 +3226,7 @@
         <v/>
       </c>
       <c r="F10" s="17" t="str">
-        <f>IF(B10="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B10,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B10="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B10,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G10" s="18" t="str">
@@ -2945,7 +3251,7 @@
         <v/>
       </c>
       <c r="F11" s="17" t="str">
-        <f>IF(B11="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B11,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B11="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B11,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G11" s="18" t="str">
@@ -2970,7 +3276,7 @@
         <v/>
       </c>
       <c r="F12" s="17" t="str">
-        <f>IF(B12="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B12,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B12="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B12,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G12" s="18" t="str">
@@ -2995,7 +3301,7 @@
         <v/>
       </c>
       <c r="F13" s="17" t="str">
-        <f>IF(B13="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B13,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B13="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B13,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G13" s="18" t="str">
@@ -3020,7 +3326,7 @@
         <v/>
       </c>
       <c r="F14" s="17" t="str">
-        <f>IF(B14="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B14,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B14="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B14,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G14" s="18" t="str">
@@ -3045,7 +3351,7 @@
         <v/>
       </c>
       <c r="F15" s="17" t="str">
-        <f>IF(B15="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B15,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B15="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B15,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G15" s="18" t="str">
@@ -3070,7 +3376,7 @@
         <v/>
       </c>
       <c r="F16" s="17" t="str">
-        <f>IF(B16="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B16,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B16="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B16,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G16" s="18" t="str">
@@ -3095,7 +3401,7 @@
         <v/>
       </c>
       <c r="F17" s="17" t="str">
-        <f>IF(B17="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B17,'Backlog del Producto'!L$8:L$130))</f>
+        <f>IF(B17="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B17,'Backlog del Producto'!L$7:L$129))</f>
         <v/>
       </c>
       <c r="G17" s="18" t="str">
@@ -3113,7 +3419,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="17">
-        <f>SUMIF('Backlog del Producto'!N$8:N$130,"",'Backlog del Producto'!L$8:L$130)-SUMIF('Backlog del Producto'!O$8:O$130,"Eliminado",'Backlog del Producto'!L$8:L$130)</f>
+        <f>SUMIF('Backlog del Producto'!N$8:N$130,"",'Backlog del Producto'!L$7:L$129)-SUMIF('Backlog del Producto'!O$8:O$130,"Eliminado",'Backlog del Producto'!L$7:L$129)</f>
         <v>0</v>
       </c>
       <c r="G18" s="18"/>
@@ -3123,29 +3429,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$G18="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$G18="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3165,56 +3471,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3359,19 +3630,54 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3383,14 +3689,30 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3408,26 +3730,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Sprint</t>
   </si>
@@ -290,27 +290,12 @@
     <t xml:space="preserve">implementacion de ventas </t>
   </si>
   <si>
-    <t>Formas de pago</t>
-  </si>
-  <si>
     <t>Poder realizar ventas y llevar el control</t>
   </si>
   <si>
-    <t>Lllevar un control de que tipo de pago se utilizara en el negocio</t>
-  </si>
-  <si>
-    <t>Proveedores</t>
-  </si>
-  <si>
     <t>Se llevara un control de los proveedores que al que el negocio le compra sus productos</t>
   </si>
   <si>
-    <t>Facturacion</t>
-  </si>
-  <si>
-    <t>Se entregaran facturas a los clientes cuando realicen una compra</t>
-  </si>
-  <si>
     <t>HU10</t>
   </si>
   <si>
@@ -362,13 +347,31 @@
     <t>Generar reporte de inventario</t>
   </si>
   <si>
-    <t>la creacion y la implementacion de inventario</t>
-  </si>
-  <si>
     <t>Registrar los productos en el inventario</t>
   </si>
   <si>
-    <t>la creacion y la implementacion de proveedores</t>
+    <t>Creacion y la implementacion de inventario</t>
+  </si>
+  <si>
+    <t>Impementacion de proveedores</t>
+  </si>
+  <si>
+    <t>Implementacion de productos</t>
+  </si>
+  <si>
+    <t>Implementacion de ingresos</t>
+  </si>
+  <si>
+    <t>Se llevara un control sobre los ingresos del negocio</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de ventas</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de compras</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de ingresos</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -552,22 +555,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -677,7 +669,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,14 +696,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="61">
     <dxf>
       <font>
         <b/>
@@ -757,6 +755,72 @@
         <extend val="0"/>
         <color indexed="54"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1478,8 +1542,8 @@
   </sheetPr>
   <dimension ref="B1:S83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1487,8 +1551,8 @@
     <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -1516,14 +1580,14 @@
       </c>
     </row>
     <row r="2" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -1542,14 +1606,14 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -1590,20 +1654,20 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1656,7 +1720,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -1682,10 +1746,10 @@
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -1713,10 +1777,10 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -1738,16 +1802,16 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -1774,11 +1838,11 @@
         <v>32</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>67</v>
+      <c r="D11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -1805,19 +1869,21 @@
         <v>33</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="48"/>
+      <c r="D12" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="39" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>11</v>
@@ -1829,24 +1895,30 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="39" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -1860,9 +1932,9 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="8">
@@ -1885,16 +1957,16 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="39"/>
-      <c r="D15" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>46</v>
+      <c r="D15" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="F15" s="8">
         <v>2</v>
@@ -1918,13 +1990,17 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C16" s="39"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="39" t="s">
@@ -1943,23 +2019,23 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="39"/>
-      <c r="D17" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>43</v>
+      <c r="D17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" s="8">
         <v>3</v>
@@ -1976,21 +2052,19 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="D18" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="F18" s="8">
         <v>3</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I18" s="8">
         <v>3</v>
@@ -2005,23 +2079,21 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="D19" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>48</v>
-      </c>
+      <c r="D19" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="8">
         <v>3</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I19" s="8">
         <v>3</v>
@@ -2038,15 +2110,17 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="39" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -2057,21 +2131,17 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>31</v>
-      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2084,7 +2154,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -2092,7 +2162,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2105,7 +2175,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -2113,7 +2183,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2126,7 +2196,7 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="39" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2134,7 +2204,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2849,168 +2919,201 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P69:P70">
-    <cfRule type="expression" dxfId="51" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="31" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="32" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="33" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="48" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="34" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="35" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80">
-    <cfRule type="expression" dxfId="45" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="79" stopIfTrue="1">
       <formula>$O70="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="80" stopIfTrue="1">
       <formula>$O70="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="81" stopIfTrue="1">
       <formula>$O70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16 D17:E20 B7:K7 F25:K62 C22:E62 D14:E15 F11:G12 C8:G8 C10:G10 C9 F9:G9 I8:K12 F14:G24 I14:K24 C11:C21">
-    <cfRule type="expression" dxfId="42" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="B7:K7 F25:K62 C22:E62 F11:G12 C8:G8 C10:G10 C9 F9:G9 I8:K12 F14:G24 I14:K24 C11:C21">
+    <cfRule type="expression" dxfId="51" priority="37" stopIfTrue="1">
       <formula>$J7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="38" stopIfTrue="1">
       <formula>$J7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="39" stopIfTrue="1">
       <formula>$J7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="39" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="85" stopIfTrue="1">
       <formula>$J14="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="86" stopIfTrue="1">
       <formula>$J14="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="87" stopIfTrue="1">
       <formula>$J14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="36" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="88" stopIfTrue="1">
       <formula>$J11="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="89" stopIfTrue="1">
       <formula>$J11="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="90" stopIfTrue="1">
       <formula>$J11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P125">
-    <cfRule type="expression" dxfId="33" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="94" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="95" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="96" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:K66">
-    <cfRule type="expression" dxfId="30" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="121" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="122" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="123" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B124 L63:L124">
-    <cfRule type="expression" dxfId="27" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="130" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="131" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="132" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:G13 I13:K13">
-    <cfRule type="expression" dxfId="24" priority="130" stopIfTrue="1">
+  <conditionalFormatting sqref="F13:G13 I13:K13 D16:E16">
+    <cfRule type="expression" dxfId="33" priority="133" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="134" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="135" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L62">
-    <cfRule type="expression" dxfId="21" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="157" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="158" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="159" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
-    <cfRule type="expression" dxfId="18" priority="160" stopIfTrue="1">
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="expression" dxfId="27" priority="163" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="164" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="165" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:K128">
-    <cfRule type="expression" dxfId="15" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="175" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="176" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="177" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B58">
-    <cfRule type="expression" dxfId="12" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="178" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="179" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="180" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9 D9:E9 H8:H24">
-    <cfRule type="expression" dxfId="9" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="184" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="185" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="186" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14 D12:E12">
+    <cfRule type="expression" dxfId="15" priority="187" stopIfTrue="1">
+      <formula>$J14="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="188" stopIfTrue="1">
+      <formula>$J14="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="189" stopIfTrue="1">
+      <formula>$J14="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:E13">
+    <cfRule type="expression" dxfId="12" priority="193" stopIfTrue="1">
+      <formula>$J15="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="194" stopIfTrue="1">
+      <formula>$J15="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="195" stopIfTrue="1">
+      <formula>$J15="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+      <formula>$J12="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+      <formula>$J12="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>$J12="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3033,8 +3136,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3467,16 +3570,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3485,7 +3584,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3630,7 +3729,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -3680,15 +3779,11 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3704,7 +3799,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3712,7 +3807,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3730,10 +3825,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Sprint</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Crear y configurar la estructura del proyecto</t>
   </si>
   <si>
-    <t xml:space="preserve">Llevar un mejor control en el inventario para que se facilite la busqueda de los productos </t>
-  </si>
-  <si>
     <t>HU05</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>HU14</t>
   </si>
   <si>
-    <t>HU15</t>
-  </si>
-  <si>
     <t xml:space="preserve">asignacion de los roles del sistema </t>
   </si>
   <si>
@@ -329,15 +323,6 @@
     <t>configurar y diseñar la gestion de los datos en el sistema</t>
   </si>
   <si>
-    <t>HU16</t>
-  </si>
-  <si>
-    <t>HU17</t>
-  </si>
-  <si>
-    <t>HU18</t>
-  </si>
-  <si>
     <t>creacion del fronted del sistema</t>
   </si>
   <si>
@@ -372,6 +357,18 @@
   </si>
   <si>
     <t>Generar y exportar reporte de ingresos</t>
+  </si>
+  <si>
+    <t>Obtener un registro de los movimientos que se realizan en el inventario</t>
+  </si>
+  <si>
+    <t>Obtener un registro de los movimientos que se realizan al efectuar compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtener un registro de los movimientos que se realizan al efectuar las ventas </t>
+  </si>
+  <si>
+    <t>Obtener un registro de los movimientos de dinero que se realizaron de entrada y salida</t>
   </si>
 </sst>
 </file>
@@ -678,6 +675,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -695,15 +695,78 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1542,8 +1605,8 @@
   </sheetPr>
   <dimension ref="B1:S83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1580,14 +1643,14 @@
       </c>
     </row>
     <row r="2" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="50"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -1606,14 +1669,14 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="50"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -1654,20 +1717,20 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1720,7 +1783,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -1746,10 +1809,10 @@
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -1777,15 +1840,17 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>32</v>
+      </c>
       <c r="H9" s="39" t="s">
         <v>26</v>
       </c>
@@ -1808,10 +1873,10 @@
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -1835,14 +1900,14 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -1866,21 +1931,21 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="8">
         <v>2</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="8">
         <v>2</v>
@@ -1897,21 +1962,21 @@
     </row>
     <row r="13" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="40" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="8">
         <v>2</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -1928,21 +1993,21 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -1959,21 +2024,21 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="F15" s="8">
         <v>2</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -1990,24 +2055,24 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>42</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>11</v>
@@ -2021,21 +2086,21 @@
     </row>
     <row r="17" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="8">
         <v>3</v>
@@ -2050,21 +2115,23 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="F18" s="8">
         <v>3</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="8">
         <v>3</v>
@@ -2079,21 +2146,23 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="8"/>
       <c r="F19" s="8">
         <v>3</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="8">
         <v>3</v>
@@ -2108,22 +2177,30 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2132,19 +2209,23 @@
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
-        <v>49</v>
-      </c>
+      <c r="B21" s="39"/>
       <c r="C21" s="40"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8">
+        <v>3</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="I21" s="8">
+        <v>3</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2153,17 +2234,13 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="B22" s="39"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="39" t="s">
-        <v>49</v>
-      </c>
+      <c r="H22" s="39"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
@@ -2174,17 +2251,13 @@
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
-        <v>56</v>
-      </c>
+      <c r="B23" s="39"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="H23" s="39"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
@@ -2195,17 +2268,13 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="39" t="s">
-        <v>57</v>
-      </c>
+      <c r="B24" s="39"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="39" t="s">
-        <v>56</v>
-      </c>
+      <c r="H24" s="39"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
@@ -2919,200 +2988,211 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P69:P70">
-    <cfRule type="expression" dxfId="60" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="34" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="35" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="36" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="57" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="37" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="38" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="39" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80">
-    <cfRule type="expression" dxfId="54" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="82" stopIfTrue="1">
       <formula>$O70="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="83" stopIfTrue="1">
       <formula>$O70="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="84" stopIfTrue="1">
       <formula>$O70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7 F25:K62 C22:E62 F11:G12 C8:G8 C10:G10 C9 F9:G9 I8:K12 F14:G24 I14:K24 C11:C21">
-    <cfRule type="expression" dxfId="51" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="B7:K7 F25:K62 C22:E62 F11:G12 C8:G8 C10:G10 C9 F9:G9 I8:K12 C11:C21 F14:G24 I14:K24">
+    <cfRule type="expression" dxfId="60" priority="40" stopIfTrue="1">
       <formula>$J7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="41" stopIfTrue="1">
       <formula>$J7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="42" stopIfTrue="1">
       <formula>$J7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="48" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="88" stopIfTrue="1">
       <formula>$J14="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="89" stopIfTrue="1">
       <formula>$J14="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="90" stopIfTrue="1">
       <formula>$J14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="45" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="91" stopIfTrue="1">
       <formula>$J11="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="92" stopIfTrue="1">
       <formula>$J11="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="93" stopIfTrue="1">
       <formula>$J11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P125">
-    <cfRule type="expression" dxfId="42" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="97" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="98" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="99" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:K66">
-    <cfRule type="expression" dxfId="39" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="124" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="125" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="126" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B124 L63:L124">
-    <cfRule type="expression" dxfId="36" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="133" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="134" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="135" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13 I13:K13 D16:E16">
-    <cfRule type="expression" dxfId="33" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="136" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="137" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="138" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L62">
-    <cfRule type="expression" dxfId="30" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="160" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="161" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="162" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="27" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="166" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="167" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="168" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:K128">
-    <cfRule type="expression" dxfId="24" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="178" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="179" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="180" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B58">
-    <cfRule type="expression" dxfId="21" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="181" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="182" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="183" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9 D9:E9 H8:H24">
-    <cfRule type="expression" dxfId="18" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="187" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="188" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="189" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 D12:E12">
-    <cfRule type="expression" dxfId="15" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="190" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="191" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="192" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="12" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="196" stopIfTrue="1">
       <formula>$J15="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="197" stopIfTrue="1">
       <formula>$J15="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="198" stopIfTrue="1">
       <formula>$J15="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>$J12="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>$J12="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+      <formula>$J12="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E20">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>$J12="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>$J12="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>$J12="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3120,7 +3200,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O81:O190 K63:K66 O64:O79 J6:J62">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F54 F7:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F16 F22:F54">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3532,29 +3612,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>$G18="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>$G18="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3576,15 +3656,60 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3729,58 +3854,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3800,14 +3880,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3825,18 +3913,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -329,9 +329,6 @@
     <t>programar el diseño del sistema</t>
   </si>
   <si>
-    <t>Generar reporte de inventario</t>
-  </si>
-  <si>
     <t>Registrar los productos en el inventario</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>Obtener un registro de los movimientos de dinero que se realizaron de entrada y salida</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de inventario</t>
   </si>
 </sst>
 </file>
@@ -700,51 +700,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -1605,8 +1561,8 @@
   </sheetPr>
   <dimension ref="B1:S83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1904,10 +1860,10 @@
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -1966,7 +1922,7 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>42</v>
@@ -1997,7 +1953,7 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>35</v>
@@ -2028,10 +1984,10 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>61</v>
       </c>
       <c r="F15" s="8">
         <v>2</v>
@@ -2090,10 +2046,10 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
@@ -2121,10 +2077,10 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
@@ -2152,10 +2108,10 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8">
         <v>3</v>
@@ -2183,10 +2139,10 @@
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
@@ -2988,211 +2944,211 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P69:P70">
-    <cfRule type="expression" dxfId="69" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="34" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="35" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="36" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="66" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="37" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="38" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="39" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80">
-    <cfRule type="expression" dxfId="63" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
       <formula>$O70="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="83" stopIfTrue="1">
       <formula>$O70="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="84" stopIfTrue="1">
       <formula>$O70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:K7 F25:K62 C22:E62 F11:G12 C8:G8 C10:G10 C9 F9:G9 I8:K12 C11:C21 F14:G24 I14:K24">
-    <cfRule type="expression" dxfId="60" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="40" stopIfTrue="1">
       <formula>$J7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="41" stopIfTrue="1">
       <formula>$J7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="42" stopIfTrue="1">
       <formula>$J7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="57" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="88" stopIfTrue="1">
       <formula>$J14="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="89" stopIfTrue="1">
       <formula>$J14="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="90" stopIfTrue="1">
       <formula>$J14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="54" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="91" stopIfTrue="1">
       <formula>$J11="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="92" stopIfTrue="1">
       <formula>$J11="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="93" stopIfTrue="1">
       <formula>$J11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P125">
-    <cfRule type="expression" dxfId="51" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="97" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="98" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="99" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:K66">
-    <cfRule type="expression" dxfId="48" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="124" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="125" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="126" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B124 L63:L124">
-    <cfRule type="expression" dxfId="45" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="133" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="134" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="135" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13 I13:K13 D16:E16">
-    <cfRule type="expression" dxfId="42" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="136" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="137" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="138" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L62">
-    <cfRule type="expression" dxfId="39" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="160" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="161" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="162" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="36" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="166" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="167" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="168" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:K128">
-    <cfRule type="expression" dxfId="33" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="178" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="179" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="180" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B58">
-    <cfRule type="expression" dxfId="30" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="181" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="182" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="183" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9 D9:E9 H8:H24">
-    <cfRule type="expression" dxfId="27" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="187" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="188" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="189" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 D12:E12">
-    <cfRule type="expression" dxfId="24" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="190" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="191" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="192" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="21" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="196" stopIfTrue="1">
       <formula>$J15="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="197" stopIfTrue="1">
       <formula>$J15="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="198" stopIfTrue="1">
       <formula>$J15="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>$J12="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>$J12="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>$J12="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$J12="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$J12="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$J12="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3612,29 +3568,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>$G18="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>$G18="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -700,29 +700,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <b/>
@@ -774,6 +752,116 @@
         <extend val="0"/>
         <color indexed="54"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1561,8 +1649,8 @@
   </sheetPr>
   <dimension ref="B1:S83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1759,16 +1847,16 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -1796,17 +1884,15 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
-        <v>32</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="39" t="s">
         <v>26</v>
       </c>
@@ -1829,10 +1915,10 @@
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -2944,212 +3030,256 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P69:P70">
-    <cfRule type="expression" dxfId="63" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="34" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="35" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="36" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="60" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="37" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="38" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="39" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80">
-    <cfRule type="expression" dxfId="57" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="82" stopIfTrue="1">
       <formula>$O70="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="83" stopIfTrue="1">
       <formula>$O70="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="84" stopIfTrue="1">
       <formula>$O70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7 F25:K62 C22:E62 F11:G12 C8:G8 C10:G10 C9 F9:G9 I8:K12 C11:C21 F14:G24 I14:K24">
-    <cfRule type="expression" dxfId="54" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="B7:K7 F25:K62 I8:K12 F14:G24 I14:K24 F8:G12 C11:C21 C22:E62">
+    <cfRule type="expression" dxfId="66" priority="40" stopIfTrue="1">
       <formula>$J7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="41" stopIfTrue="1">
       <formula>$J7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="42" stopIfTrue="1">
       <formula>$J7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="51" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
       <formula>$J14="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="89" stopIfTrue="1">
       <formula>$J14="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="90" stopIfTrue="1">
       <formula>$J14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="48" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="91" stopIfTrue="1">
       <formula>$J11="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="92" stopIfTrue="1">
       <formula>$J11="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="93" stopIfTrue="1">
       <formula>$J11="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64:P125">
-    <cfRule type="expression" dxfId="45" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="97" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="98" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="99" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:K66">
-    <cfRule type="expression" dxfId="42" priority="124" stopIfTrue="1">
+  <conditionalFormatting sqref="F63:K66">
+    <cfRule type="expression" dxfId="54" priority="124" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="125" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="126" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B124 L63:L124">
-    <cfRule type="expression" dxfId="39" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="133" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="134" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="135" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:G13 I13:K13 D16:E16">
-    <cfRule type="expression" dxfId="36" priority="136" stopIfTrue="1">
+  <conditionalFormatting sqref="I13:K13 D16:E16 F13:G13">
+    <cfRule type="expression" dxfId="48" priority="136" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="137" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="138" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L62">
-    <cfRule type="expression" dxfId="33" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="160" stopIfTrue="1">
       <formula>$K63="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="161" stopIfTrue="1">
       <formula>$K63="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="162" stopIfTrue="1">
       <formula>$K63="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="30" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="166" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="167" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="168" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67:K128">
-    <cfRule type="expression" dxfId="27" priority="178" stopIfTrue="1">
+  <conditionalFormatting sqref="F67:K128">
+    <cfRule type="expression" dxfId="39" priority="178" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="179" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="180" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B58">
-    <cfRule type="expression" dxfId="24" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="181" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="182" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="183" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 D9:E9 H8:H24">
-    <cfRule type="expression" dxfId="21" priority="187" stopIfTrue="1">
+  <conditionalFormatting sqref="B8:B9 H8:H24">
+    <cfRule type="expression" dxfId="33" priority="187" stopIfTrue="1">
       <formula>$J11="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="188" stopIfTrue="1">
       <formula>$J11="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="189" stopIfTrue="1">
       <formula>$J11="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 D12:E12">
-    <cfRule type="expression" dxfId="18" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="190" stopIfTrue="1">
       <formula>$J14="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="191" stopIfTrue="1">
       <formula>$J14="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="192" stopIfTrue="1">
       <formula>$J14="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="15" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="196" stopIfTrue="1">
       <formula>$J15="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="197" stopIfTrue="1">
       <formula>$J15="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="198" stopIfTrue="1">
       <formula>$J15="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>$J12="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>$J12="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>$J12="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>$J12="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>$J12="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>$J12="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9 C8 C10">
+    <cfRule type="expression" dxfId="18" priority="202" stopIfTrue="1">
+      <formula>$J7="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="203" stopIfTrue="1">
+      <formula>$J7="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="204" stopIfTrue="1">
+      <formula>$J7="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:E66">
+    <cfRule type="expression" dxfId="15" priority="223" stopIfTrue="1">
+      <formula>$K63="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="224" stopIfTrue="1">
+      <formula>$K63="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="225" stopIfTrue="1">
+      <formula>$K63="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:E128">
+    <cfRule type="expression" dxfId="12" priority="232" stopIfTrue="1">
+      <formula>$O64="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="233" stopIfTrue="1">
+      <formula>$O64="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="234" stopIfTrue="1">
+      <formula>$O64="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10 D8:E8">
+    <cfRule type="expression" dxfId="9" priority="235" stopIfTrue="1">
+      <formula>$J10="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="236" stopIfTrue="1">
+      <formula>$J10="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="237" stopIfTrue="1">
+      <formula>$J10="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3568,29 +3698,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$G18="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$G18="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3612,60 +3742,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3810,13 +3895,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3836,22 +3966,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3869,10 +3991,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/product_backlog.xlsx
+++ b/product_backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melky\Desktop\Trabajos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melky\Documents\ITCHA\Modulos\Diseños de Sistemas Informaticos\Trabajo de graduacion\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>Sprint</t>
   </si>
@@ -323,12 +323,6 @@
     <t>configurar y diseñar la gestion de los datos en el sistema</t>
   </si>
   <si>
-    <t>creacion del fronted del sistema</t>
-  </si>
-  <si>
-    <t>programar el diseño del sistema</t>
-  </si>
-  <si>
     <t>Registrar los productos en el inventario</t>
   </si>
   <si>
@@ -341,21 +335,12 @@
     <t>Implementacion de productos</t>
   </si>
   <si>
-    <t>Implementacion de ingresos</t>
-  </si>
-  <si>
-    <t>Se llevara un control sobre los ingresos del negocio</t>
-  </si>
-  <si>
     <t>Generar y exportar reporte de ventas</t>
   </si>
   <si>
     <t>Generar y exportar reporte de compras</t>
   </si>
   <si>
-    <t>Generar y exportar reporte de ingresos</t>
-  </si>
-  <si>
     <t>Obtener un registro de los movimientos que se realizan en el inventario</t>
   </si>
   <si>
@@ -365,10 +350,46 @@
     <t xml:space="preserve">Obtener un registro de los movimientos que se realizan al efectuar las ventas </t>
   </si>
   <si>
-    <t>Obtener un registro de los movimientos de dinero que se realizaron de entrada y salida</t>
-  </si>
-  <si>
     <t>Generar y exportar reporte de inventario</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de descargos</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Implementar Dashboard</t>
+  </si>
+  <si>
+    <t>implementar la interfaz del sistema informatico</t>
+  </si>
+  <si>
+    <t>HU15</t>
+  </si>
+  <si>
+    <t>HU16</t>
+  </si>
+  <si>
+    <t>Implementar los proveedores</t>
+  </si>
+  <si>
+    <t>implementar fabricantes</t>
+  </si>
+  <si>
+    <t>Se llevara un control de los proveedores que se aquieren en el negocio</t>
+  </si>
+  <si>
+    <t>se llevara un control de los fabricantes de los productos</t>
+  </si>
+  <si>
+    <t>Generar y exportar reporte de proveedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtener un registro de los proveedores </t>
+  </si>
+  <si>
+    <t>Obtener un registro de los descargos que se hayan realizado.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -539,24 +560,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -652,9 +660,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,28 +671,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,11 +683,218 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1647,16 +1841,16 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S83"/>
+  <dimension ref="B1:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="53.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -1687,17 +1881,17 @@
       </c>
     </row>
     <row r="2" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -1713,17 +1907,17 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
@@ -1761,20 +1955,20 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="45" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1794,22 +1988,22 @@
       <c r="E6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="40" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="6"/>
@@ -1819,14 +2013,16 @@
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="8">
@@ -1847,27 +2043,27 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>52</v>
+      <c r="C8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
+      <c r="H8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1878,27 +2074,27 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>54</v>
+      <c r="C9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
+      <c r="H9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1910,22 +2106,24 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="39" t="s">
-        <v>27</v>
+      <c r="H10" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -1941,22 +2139,24 @@
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>55</v>
+      <c r="C11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="39" t="s">
-        <v>28</v>
+      <c r="H11" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -1972,25 +2172,27 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="39" t="s">
-        <v>31</v>
+      <c r="H12" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="I12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>11</v>
@@ -2003,22 +2205,24 @@
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="40" t="s">
+      <c r="C13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="8">
         <v>2</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="39" t="s">
-        <v>32</v>
+      <c r="H13" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
@@ -2034,22 +2238,24 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="39" t="s">
-        <v>36</v>
+      <c r="H14" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="I14" s="8">
         <v>2</v>
@@ -2064,23 +2270,25 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>60</v>
+      <c r="C15" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="8">
         <v>2</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="39" t="s">
-        <v>37</v>
+      <c r="H15" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
@@ -2096,25 +2304,27 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>41</v>
+      <c r="C16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="F16" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="39" t="s">
-        <v>38</v>
+      <c r="H16" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="I16" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>11</v>
@@ -2126,23 +2336,25 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39" t="s">
-        <v>68</v>
+      <c r="C17" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F17" s="8">
         <v>3</v>
       </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="39" t="s">
-        <v>43</v>
+      <c r="H17" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="I17" s="8">
         <v>3</v>
@@ -2158,22 +2370,24 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="39" t="s">
-        <v>65</v>
+      <c r="E18" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="39" t="s">
-        <v>44</v>
+      <c r="H18" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="I18" s="8">
         <v>3</v>
@@ -2189,22 +2403,24 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>66</v>
+      <c r="C19" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="F19" s="8">
         <v>3</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="39" t="s">
-        <v>45</v>
+      <c r="H19" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="I19" s="8">
         <v>3</v>
@@ -2220,22 +2436,24 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>67</v>
+      <c r="C20" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="F20" s="8">
         <v>3</v>
       </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="39" t="s">
-        <v>46</v>
+      <c r="H20" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="I20" s="8">
         <v>3</v>
@@ -2251,16 +2469,24 @@
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>75</v>
+      </c>
       <c r="F21" s="8">
         <v>3</v>
       </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="39" t="s">
-        <v>47</v>
+      <c r="H21" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="I21" s="8">
         <v>3</v>
@@ -2276,15 +2502,31 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
+      </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="H22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -2293,13 +2535,13 @@
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
@@ -2310,13 +2552,13 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
@@ -2327,13 +2569,13 @@
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
@@ -2344,13 +2586,13 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
@@ -2361,10 +2603,10 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -2378,10 +2620,10 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2395,10 +2637,10 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2412,10 +2654,10 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2429,10 +2671,10 @@
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2446,10 +2688,10 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -2463,10 +2705,10 @@
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2480,10 +2722,10 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2497,10 +2739,10 @@
       <c r="P34" s="6"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -2514,10 +2756,10 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2531,10 +2773,10 @@
       <c r="P36" s="6"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2548,10 +2790,10 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2565,10 +2807,10 @@
       <c r="P38" s="6"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2582,10 +2824,10 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2599,10 +2841,10 @@
       <c r="P40" s="6"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2616,10 +2858,10 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2633,10 +2875,10 @@
       <c r="P42" s="6"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2650,10 +2892,10 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2667,10 +2909,10 @@
       <c r="P44" s="6"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2684,10 +2926,10 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2701,10 +2943,10 @@
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2718,10 +2960,10 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2735,10 +2977,10 @@
       <c r="P48" s="6"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2752,10 +2994,10 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2769,9 +3011,10 @@
       <c r="P50" s="6"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -2785,9 +3028,10 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -2801,9 +3045,10 @@
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -2817,9 +3062,10 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -2833,14 +3079,16 @@
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="4"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -2893,24 +3141,24 @@
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -2956,11 +3204,12 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
@@ -2975,6 +3224,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
+      <c r="M64" s="6"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
@@ -2996,28 +3246,38 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="P69" s="7"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B79" s="6"/>
-      <c r="L79" s="6"/>
-    </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="L80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="6"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3030,263 +3290,307 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P69:P70">
-    <cfRule type="expression" dxfId="75" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="37" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="38" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="39" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="72" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="expression" dxfId="99" priority="40" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="41" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="42" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P80">
-    <cfRule type="expression" dxfId="69" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="85" stopIfTrue="1">
       <formula>$O70="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="86" stopIfTrue="1">
       <formula>$O70="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="87" stopIfTrue="1">
       <formula>$O70="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7 F25:K62 I8:K12 F14:G24 I14:K24 F8:G12 C11:C21 C22:E62">
-    <cfRule type="expression" dxfId="66" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="F26:K63 F15:G25 I15:K25 C23:E63 B7:K7 C8 E8:G8 F9:G13 I8:K13 C16:C22 B8:B22">
+    <cfRule type="expression" dxfId="93" priority="43" stopIfTrue="1">
       <formula>$J7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="44" stopIfTrue="1">
       <formula>$J7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="45" stopIfTrue="1">
       <formula>$J7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
-      <formula>$J14="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="89" stopIfTrue="1">
-      <formula>$J14="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="90" stopIfTrue="1">
-      <formula>$J14="Removed"</formula>
+    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
+      <formula>$J15="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="92" stopIfTrue="1">
+      <formula>$J15="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="93" stopIfTrue="1">
+      <formula>$J15="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="60" priority="91" stopIfTrue="1">
-      <formula>$J11="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="92" stopIfTrue="1">
-      <formula>$J11="In Progress"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="93" stopIfTrue="1">
-      <formula>$J11="Removed"</formula>
+    <cfRule type="expression" dxfId="87" priority="94" stopIfTrue="1">
+      <formula>$J12="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="95" stopIfTrue="1">
+      <formula>$J12="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="96" stopIfTrue="1">
+      <formula>$J12="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M64:P125">
-    <cfRule type="expression" dxfId="57" priority="97" stopIfTrue="1">
+  <conditionalFormatting sqref="N64:P125 L64:L125">
+    <cfRule type="expression" dxfId="84" priority="100" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="102" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63:K66">
-    <cfRule type="expression" dxfId="54" priority="124" stopIfTrue="1">
-      <formula>$K63="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="125" stopIfTrue="1">
-      <formula>$K63="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="126" stopIfTrue="1">
-      <formula>$K63="Eliminado"</formula>
+  <conditionalFormatting sqref="F64:K67">
+    <cfRule type="expression" dxfId="81" priority="127" stopIfTrue="1">
+      <formula>$K64="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="128" stopIfTrue="1">
+      <formula>$K64="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="129" stopIfTrue="1">
+      <formula>$K64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B124 L63:L124">
-    <cfRule type="expression" dxfId="51" priority="133" stopIfTrue="1">
+  <conditionalFormatting sqref="B64:B125">
+    <cfRule type="expression" dxfId="78" priority="136" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="137" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="138" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:K13 D16:E16 F13:G13">
-    <cfRule type="expression" dxfId="48" priority="136" stopIfTrue="1">
-      <formula>$J14="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="137" stopIfTrue="1">
-      <formula>$J14="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="138" stopIfTrue="1">
-      <formula>$J14="Eliminado"</formula>
+  <conditionalFormatting sqref="I14:K14 D17:E17 F14:G14 D8 C10:C15">
+    <cfRule type="expression" dxfId="75" priority="139" stopIfTrue="1">
+      <formula>$J9="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="140" stopIfTrue="1">
+      <formula>$J9="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="141" stopIfTrue="1">
+      <formula>$J9="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59:L62">
-    <cfRule type="expression" dxfId="45" priority="160" stopIfTrue="1">
-      <formula>$K63="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="161" stopIfTrue="1">
-      <formula>$K63="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="162" stopIfTrue="1">
-      <formula>$K63="Eliminado"</formula>
+  <conditionalFormatting sqref="L60:L63">
+    <cfRule type="expression" dxfId="72" priority="163" stopIfTrue="1">
+      <formula>$K64="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="164" stopIfTrue="1">
+      <formula>$K64="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="165" stopIfTrue="1">
+      <formula>$K64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="42" priority="166" stopIfTrue="1">
-      <formula>$J11="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="167" stopIfTrue="1">
-      <formula>$J11="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="168" stopIfTrue="1">
-      <formula>$J11="Eliminado"</formula>
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="expression" dxfId="69" priority="169" stopIfTrue="1">
+      <formula>$J12="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="170" stopIfTrue="1">
+      <formula>$J12="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="171" stopIfTrue="1">
+      <formula>$J12="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:K128">
-    <cfRule type="expression" dxfId="39" priority="178" stopIfTrue="1">
+  <conditionalFormatting sqref="F68:K129">
+    <cfRule type="expression" dxfId="66" priority="181" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="182" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="183" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B58">
-    <cfRule type="expression" dxfId="36" priority="181" stopIfTrue="1">
-      <formula>$J14="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="182" stopIfTrue="1">
-      <formula>$J14="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="183" stopIfTrue="1">
-      <formula>$J14="Eliminado"</formula>
+  <conditionalFormatting sqref="B23:B59">
+    <cfRule type="expression" dxfId="63" priority="184" stopIfTrue="1">
+      <formula>$J27="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="185" stopIfTrue="1">
+      <formula>$J27="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="186" stopIfTrue="1">
+      <formula>$J27="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 H8:H24">
-    <cfRule type="expression" dxfId="33" priority="187" stopIfTrue="1">
-      <formula>$J11="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="188" stopIfTrue="1">
-      <formula>$J11="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="189" stopIfTrue="1">
-      <formula>$J11="Eliminado"</formula>
+  <conditionalFormatting sqref="D12:E12 H23:H25">
+    <cfRule type="expression" dxfId="60" priority="190" stopIfTrue="1">
+      <formula>$J15="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="191" stopIfTrue="1">
+      <formula>$J15="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="192" stopIfTrue="1">
+      <formula>$J15="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14 D12:E12">
-    <cfRule type="expression" dxfId="30" priority="190" stopIfTrue="1">
-      <formula>$J14="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="191" stopIfTrue="1">
-      <formula>$J14="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="192" stopIfTrue="1">
-      <formula>$J14="Eliminado"</formula>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="57" priority="193" stopIfTrue="1">
+      <formula>$J17="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="194" stopIfTrue="1">
+      <formula>$J17="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="195" stopIfTrue="1">
+      <formula>$J17="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="27" priority="196" stopIfTrue="1">
-      <formula>$J15="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="197" stopIfTrue="1">
-      <formula>$J15="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="198" stopIfTrue="1">
-      <formula>$J15="Eliminado"</formula>
+    <cfRule type="expression" dxfId="54" priority="199" stopIfTrue="1">
+      <formula>$J16="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="200" stopIfTrue="1">
+      <formula>$J16="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="201" stopIfTrue="1">
+      <formula>$J16="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
-      <formula>$J12="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
-      <formula>$J12="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
-      <formula>$J12="Eliminado"</formula>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="51" priority="7" stopIfTrue="1">
+      <formula>$J13="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
+      <formula>$J13="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+      <formula>$J13="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E20">
-    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
-      <formula>$J12="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
-      <formula>$J12="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
-      <formula>$J12="Eliminado"</formula>
+  <conditionalFormatting sqref="E19:E21">
+    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
+      <formula>$J13="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="5" stopIfTrue="1">
+      <formula>$J13="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="6" stopIfTrue="1">
+      <formula>$J13="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:E9 C8 C10">
-    <cfRule type="expression" dxfId="18" priority="202" stopIfTrue="1">
-      <formula>$J7="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="203" stopIfTrue="1">
-      <formula>$J7="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="204" stopIfTrue="1">
-      <formula>$J7="Eliminado"</formula>
+  <conditionalFormatting sqref="C64:E67">
+    <cfRule type="expression" dxfId="45" priority="226" stopIfTrue="1">
+      <formula>$K64="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="227" stopIfTrue="1">
+      <formula>$K64="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="228" stopIfTrue="1">
+      <formula>$K64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:E66">
-    <cfRule type="expression" dxfId="15" priority="223" stopIfTrue="1">
-      <formula>$K63="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="224" stopIfTrue="1">
-      <formula>$K63="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="225" stopIfTrue="1">
-      <formula>$K63="Eliminado"</formula>
+  <conditionalFormatting sqref="C68:E129">
+    <cfRule type="expression" dxfId="42" priority="235" stopIfTrue="1">
+      <formula>$O64="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="236" stopIfTrue="1">
+      <formula>$O64="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="237" stopIfTrue="1">
+      <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67:E128">
-    <cfRule type="expression" dxfId="12" priority="232" stopIfTrue="1">
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="expression" dxfId="39" priority="238" stopIfTrue="1">
+      <formula>$J13="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="239" stopIfTrue="1">
+      <formula>$J13="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="240" stopIfTrue="1">
+      <formula>$J13="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M65:M126">
+    <cfRule type="expression" dxfId="26" priority="265" stopIfTrue="1">
       <formula>$O64="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="266" stopIfTrue="1">
       <formula>$O64="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="267" stopIfTrue="1">
       <formula>$O64="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10 D8:E8">
-    <cfRule type="expression" dxfId="9" priority="235" stopIfTrue="1">
-      <formula>$J10="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="236" stopIfTrue="1">
-      <formula>$J10="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="237" stopIfTrue="1">
-      <formula>$J10="Eliminado"</formula>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="23" priority="271" stopIfTrue="1">
+      <formula>#REF!="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="272" stopIfTrue="1">
+      <formula>#REF!="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="273" stopIfTrue="1">
+      <formula>#REF!="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9">
+    <cfRule type="expression" dxfId="20" priority="277" stopIfTrue="1">
+      <formula>$J11="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="278" stopIfTrue="1">
+      <formula>$J11="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="279" stopIfTrue="1">
+      <formula>$J11="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H22">
+    <cfRule type="expression" dxfId="17" priority="280" stopIfTrue="1">
+      <formula>$J13="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="281" stopIfTrue="1">
+      <formula>$J13="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="282" stopIfTrue="1">
+      <formula>$J13="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+      <formula>$J16="Terminado"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+      <formula>$J16="En Progreso"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>$J16="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O81:O190 K63:K66 O64:O79 J6:J62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O81:O190 K64:K67 O64:O79 J6:J63">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F16 F22:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F55 F7:F17">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3303,7 +3607,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3362,7 +3666,7 @@
         <v>44378</v>
       </c>
       <c r="F3" s="17">
-        <f ca="1">IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B3,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B3,'Backlog del Producto'!L$7:L$130))</f>
         <v>0</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -3385,7 +3689,7 @@
         <v>44402</v>
       </c>
       <c r="F4" s="17">
-        <f ca="1">IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B4,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B4,'Backlog del Producto'!L$7:L$130))</f>
         <v>0</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -3410,7 +3714,7 @@
         <v>44432</v>
       </c>
       <c r="F5" s="17">
-        <f ca="1">IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B5,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$130,Sprints!B5,'Backlog del Producto'!L$7:L$130))</f>
         <v>0</v>
       </c>
       <c r="G5" s="18" t="s">
@@ -3470,7 +3774,7 @@
         <v/>
       </c>
       <c r="F9" s="17" t="str">
-        <f>IF(B9="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B9,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B9="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B9,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G9" s="18" t="str">
@@ -3495,7 +3799,7 @@
         <v/>
       </c>
       <c r="F10" s="17" t="str">
-        <f>IF(B10="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B10,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B10="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B10,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G10" s="18" t="str">
@@ -3520,7 +3824,7 @@
         <v/>
       </c>
       <c r="F11" s="17" t="str">
-        <f>IF(B11="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B11,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B11="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B11,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G11" s="18" t="str">
@@ -3545,7 +3849,7 @@
         <v/>
       </c>
       <c r="F12" s="17" t="str">
-        <f>IF(B12="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B12,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B12="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B12,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G12" s="18" t="str">
@@ -3570,7 +3874,7 @@
         <v/>
       </c>
       <c r="F13" s="17" t="str">
-        <f>IF(B13="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B13,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B13="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B13,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G13" s="18" t="str">
@@ -3595,7 +3899,7 @@
         <v/>
       </c>
       <c r="F14" s="17" t="str">
-        <f>IF(B14="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B14,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B14="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B14,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G14" s="18" t="str">
@@ -3620,7 +3924,7 @@
         <v/>
       </c>
       <c r="F15" s="17" t="str">
-        <f>IF(B15="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B15,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B15="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B15,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G15" s="18" t="str">
@@ -3645,7 +3949,7 @@
         <v/>
       </c>
       <c r="F16" s="17" t="str">
-        <f>IF(B16="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B16,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B16="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B16,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G16" s="18" t="str">
@@ -3670,7 +3974,7 @@
         <v/>
       </c>
       <c r="F17" s="17" t="str">
-        <f>IF(B17="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B17,'Backlog del Producto'!L$7:L$129))</f>
+        <f>IF(B17="","",SUMIF('Backlog del Producto'!N$8:N$130,Sprints!B17,'Backlog del Producto'!L$7:L$130))</f>
         <v/>
       </c>
       <c r="G17" s="18" t="str">
@@ -3688,7 +3992,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="17">
-        <f>SUMIF('Backlog del Producto'!N$8:N$130,"",'Backlog del Producto'!L$7:L$129)-SUMIF('Backlog del Producto'!O$8:O$130,"Eliminado",'Backlog del Producto'!L$7:L$129)</f>
+        <f>SUMIF('Backlog del Producto'!N$8:N$130,"",'Backlog del Producto'!L$7:L$130)-SUMIF('Backlog del Producto'!O$8:O$130,"Eliminado",'Backlog del Producto'!L$7:L$130)</f>
         <v>0</v>
       </c>
       <c r="G18" s="18"/>
@@ -3698,29 +4002,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
       <formula>$G18="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
       <formula>$G18="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I17 B3:F17">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3742,15 +4046,60 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3895,58 +4244,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3966,14 +4270,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3991,18 +4303,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>